--- a/image/source.xlsx
+++ b/image/source.xlsx
@@ -13,7 +13,6 @@
     <sheet name="mount" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -11453,6 +11452,168 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="圆角矩形 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="18830923"/>
+          <a:ext cx="361950" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>否</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857251</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="圆角矩形 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886076" y="21335998"/>
+          <a:ext cx="361950" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2971799</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -11709,7 +11870,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11721,7 +11882,7 @@
             <a:t>调用</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11733,7 +11894,7 @@
             <a:t>instantiateReactComponent</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11745,7 +11906,7 @@
             <a:t>模块以实例化</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11757,7 +11918,7 @@
             <a:t>render</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11769,7 +11930,7 @@
             <a:t>方法的返回值，即</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11781,7 +11942,7 @@
             <a:t>renderedElement</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11792,7 +11953,7 @@
             </a:rPr>
             <a:t>元素 </a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="500">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -11862,7 +12023,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11874,7 +12035,7 @@
             <a:t>间接执行</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11886,7 +12047,7 @@
             <a:t>ReactClass</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11898,7 +12059,7 @@
             <a:t>或</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11910,7 +12071,7 @@
             <a:t>TopLevelWrapper</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11922,7 +12083,7 @@
             <a:t>实例的</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11934,7 +12095,7 @@
             <a:t>render</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11946,7 +12107,7 @@
             <a:t>方法，获取待挂载的元素</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -11957,7 +12118,7 @@
             </a:rPr>
             <a:t>ReactNode</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="600">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -12027,7 +12188,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12039,7 +12200,7 @@
             <a:t>执行实力</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12051,7 +12212,7 @@
             <a:t>inst</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12063,7 +12224,7 @@
             <a:t>的</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12075,7 +12236,7 @@
             <a:t>render</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12087,7 +12248,7 @@
             <a:t>方法，嵌套调用</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12099,7 +12260,7 @@
             <a:t>mountComponent.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12111,7 +12272,7 @@
             <a:t>将返回值</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12123,7 +12284,7 @@
             <a:t>ReactNode</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12135,7 +12296,7 @@
             <a:t>元素转为</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12147,7 +12308,7 @@
             <a:t>DomLazyTree</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12158,7 +12319,7 @@
             </a:rPr>
             <a:t>输出</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="600">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -12228,7 +12389,7 @@
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12236,7 +12397,7 @@
             <a:t>纯组件</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12244,7 +12405,7 @@
             <a:t>|| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12252,7 +12413,7 @@
             <a:t>组件实例化</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12260,7 +12421,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12268,7 +12429,7 @@
             <a:t>|| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12355,7 +12516,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12367,7 +12528,7 @@
             <a:t>- transaction:ReactUpdates.ReactReconcileTransaction.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12379,7 +12540,7 @@
             <a:t>即</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12391,7 +12552,7 @@
             <a:t>ReactReconcileTransaction</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12403,7 +12564,7 @@
             <a:t>模块</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12415,7 +12576,7 @@
             <a:t/>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12426,7 +12587,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12438,7 +12599,7 @@
             <a:t>- .getUpdateQueue():</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12450,7 +12611,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12462,7 +12623,7 @@
             <a:t>向组件实例注入</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12474,7 +12635,7 @@
             <a:t>update</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12486,7 +12647,7 @@
             <a:t>参数，默认是</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12498,7 +12659,7 @@
             <a:t>ReactUpdateQueue</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12528,7 +12689,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -12540,7 +12701,7 @@
         </a:p>
         <a:p>
           <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -12608,7 +12769,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12689,14 +12850,14 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>ReactCompositeComponent.mountComponent(transaction...)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -12781,7 +12942,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12855,7 +13016,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12929,7 +13090,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13003,7 +13164,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13015,7 +13176,7 @@
             <a:t>// </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13046,7 +13207,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13058,7 +13219,7 @@
             <a:t>var Component = this._currentElement.type;</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13069,7 +13230,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13082,7 +13243,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -13501,7 +13662,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -13573,7 +13734,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13664,7 +13825,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13676,7 +13837,7 @@
             <a:t>inst.state </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13688,7 +13849,7 @@
             <a:t>= </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13700,7 +13861,7 @@
             <a:t>this</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13712,7 +13873,7 @@
             <a:t>._processPendingState(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13724,7 +13885,7 @@
             <a:t>inst.props</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13736,7 +13897,7 @@
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13747,7 +13908,7 @@
             </a:rPr>
             <a:t>inst.context)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -13836,7 +13997,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13844,7 +14005,7 @@
             <a:t>Object.assign(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13852,7 +14013,7 @@
             <a:t>nextState</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13860,7 +14021,7 @@
             <a:t>, this.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -13868,14 +14029,14 @@
             <a:t>_pendingStateQueue</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>[i])</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -14021,7 +14182,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14033,7 +14194,7 @@
             <a:t>renderedElement =</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14045,7 +14206,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14119,7 +14280,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14540,7 +14701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17268826" y="12420598"/>
+          <a:off x="13154026" y="12420598"/>
           <a:ext cx="3009900" cy="495301"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14782,7 +14943,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14796,7 +14957,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14887,7 +15048,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14900,7 +15061,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16019,7 +16180,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16209,7 +16370,7 @@
             </a:rPr>
             <a:t>, this._instance)     </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16433,7 +16594,7 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="600" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16522,6 +16683,2273 @@
         <a:xfrm flipH="1">
           <a:off x="2505075" y="5562600"/>
           <a:ext cx="23813" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1283633</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="椭圆 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="16697325"/>
+          <a:ext cx="721658" cy="304239"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="圆角矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400176" y="17364073"/>
+          <a:ext cx="3105149" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReactDOMElement.mountComponent(transaction,xxx)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3095625</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5276850</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="圆角矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="18002248"/>
+          <a:ext cx="2181225" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReactDOMSelect.mountWrapper(...)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="流程图: 决策 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="18192750"/>
+          <a:ext cx="3200400" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this._tag</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>复杂标签</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3095625</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5276850</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="圆角矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="18649948"/>
+          <a:ext cx="2181225" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>transaction.getReactMountReady().equeue(..)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="圆角矩形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409701" y="19307173"/>
+          <a:ext cx="3105149" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>assertValildProps(this,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> props</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="圆角矩形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419226" y="20050123"/>
+          <a:ext cx="3105149" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>validateDOMNesting(this._tag)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="圆角矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057276" y="21764623"/>
+          <a:ext cx="3829049" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>el = ownerDocument.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>createElement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this._currentElement.type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="流程图: 决策 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="20783550"/>
+          <a:ext cx="3200400" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>transaction.useCreateElement</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="圆角矩形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419226" y="22517099"/>
+          <a:ext cx="3105149" cy="266702"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReactDOMComponentTree.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>precacheNode(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> el</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="圆角矩形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847851" y="23098123"/>
+          <a:ext cx="2247899" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var lazyTree = DOMLazyTree(el);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="圆角矩形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181101" y="23879174"/>
+          <a:ext cx="3571874" cy="266702"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_createInitialChildren</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>transaction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> props</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> context</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> lazyTree</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="圆角矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="23479124"/>
+          <a:ext cx="4857749" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var mountImages = this.mountChildren(childrenToUse, transaction,context);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReactMultiChild:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上的方法，处理所有的子元素，返回子元素的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>node </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="圆角矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="24526873"/>
+          <a:ext cx="1752599" cy="352427"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mountImage </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> lazyTree... </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1293158</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>37539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="椭圆 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="25222200"/>
+          <a:ext cx="721658" cy="304239"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>922804</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="4"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2951629" y="17001564"/>
+          <a:ext cx="1122" cy="362509"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="肘形连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2714626" y="17954625"/>
+          <a:ext cx="476250" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3095625</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="肘形连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4552950" y="18178462"/>
+          <a:ext cx="571500" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4186238</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4186238</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6215063" y="18354675"/>
+          <a:ext cx="0" cy="295273"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4186238</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="肘形连接符 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4436271" y="17528381"/>
+          <a:ext cx="304798" cy="3252787"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="18754725"/>
+          <a:ext cx="9526" cy="552448"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7176" name="直接箭头连接符 7175"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962276" y="19659600"/>
+          <a:ext cx="9525" cy="390523"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7181" name="直接箭头连接符 7180"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2962275" y="20402550"/>
+          <a:ext cx="9526" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7184" name="直接箭头连接符 7183"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="21345525"/>
+          <a:ext cx="9526" cy="419098"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7187" name="直接箭头连接符 7186"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971801" y="22117050"/>
+          <a:ext cx="0" cy="400049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7192" name="直接箭头连接符 7191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971801" y="22783801"/>
+          <a:ext cx="0" cy="314322"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>938213</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7196" name="直接箭头连接符 7195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2967038" y="23450550"/>
+          <a:ext cx="4763" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>938213</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7199" name="直接箭头连接符 7198"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2967038" y="24145876"/>
+          <a:ext cx="4763" cy="380997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>932329</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942976</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7203" name="直接箭头连接符 7202"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2961154" y="24879300"/>
+          <a:ext cx="10647" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7207" name="直接箭头连接符 7206"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4752975" y="23807737"/>
+          <a:ext cx="571500" cy="204788"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16953,8 +19381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C13:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -16979,6 +19407,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>